--- a/Test Data Driven/AI-Generated/TC2-Purchase Samsung Products with Quantity Adjustment.xlsx
+++ b/Test Data Driven/AI-Generated/TC2-Purchase Samsung Products with Quantity Adjustment.xlsx
@@ -561,12 +561,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
